--- a/OrangeHRMTestNGDDT/OrangeHRMTestXLFiles/TestData1.xlsx
+++ b/OrangeHRMTestNGDDT/OrangeHRMTestXLFiles/TestData1.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="3195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLoginValidData" sheetId="1" r:id="rId1"/>
     <sheet name="AdminLoginInvalidData" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AddEmployee" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M19"/>
+  <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Qedge123!@#</t>
   </si>
   <si>
-    <t>Sravani</t>
-  </si>
-  <si>
     <t>demo</t>
   </si>
   <si>
@@ -44,6 +41,21 @@
   </si>
   <si>
     <t>dfvdvvd</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Nirmala</t>
+  </si>
+  <si>
+    <t>Mattapalli</t>
+  </si>
+  <si>
+    <t>Ramu</t>
   </si>
   <si>
     <t>Pass</t>
@@ -54,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +94,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -118,11 +138,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -422,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -451,22 +476,16 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="C2" t="s" s="12">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -474,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" activeCellId="2" sqref="C2 C3 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,32 +520,23 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -541,12 +551,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>